--- a/Microbit_eboard/edu_vs_2.2/images/活頁簿1.xlsx
+++ b/Microbit_eboard/edu_vs_2.2/images/活頁簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Desktop\kittenbot docs\testinghub\Microbit_eboard\edu_vs_2.2\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ABAFB0D-C1E4-4ABF-A339-BBBDE5985D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3097E9E9-22EA-4EDA-A728-D9CD413C8C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDD4940E-D146-4B95-B6B5-879E02985209}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Robotbit EDU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,22 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8組PH2.0防反插</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8組杜邦針接頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1組5V 4針杜邦針接頭(P2 P12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1組PH2.0防反插I2C接頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接頭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,9 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接頭可自由選擇5V或3V供電</t>
-  </si>
-  <si>
     <t>板載全彩LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,7 +78,43 @@
     <t>有</t>
   </si>
   <si>
-    <t>防反插接口一律3V</t>
+    <t>1組防反插I2C接頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8組防反插接頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0, P1, P2, P8, P12, P13, P14, P15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8組防反插接口一律3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1組4針杜邦針接頭(P2 P12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1組5V杜邦針接頭(P2 P12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8組3V接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3組5V接頭</t>
+  </si>
+  <si>
+    <t>I2C接頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -147,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,13 +224,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +267,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199F48F1-82BD-410A-A9F3-EC68C8F8965F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C8"/>
+      <selection activeCell="C10" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -576,63 +619,86 @@
     </row>
     <row r="3" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="10" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
